--- a/apidata/momentum/01-08-2023/report_01-08-2023.xlsx
+++ b/apidata/momentum/01-08-2023/report_01-08-2023.xlsx
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-1086.900000000016</v>
+        <v>42678.20000000007</v>
       </c>
     </row>
     <row r="5">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>783.0999999999767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-1869.999999999993</v>
+        <v>42678.20000000007</v>
       </c>
     </row>
     <row r="7"/>
@@ -592,7 +592,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>2023-08-01 09:31:00</t>
+          <t>2023-08-01 10:15:00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -602,31 +602,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>HINDCOPPER-EQ</t>
+          <t>HINDCOPPER31AUG23C150</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>17939</v>
+        <v>41033</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>5300</v>
       </c>
       <c r="H10" t="n">
-        <v>334</v>
+        <v>10600</v>
       </c>
       <c r="I10" t="n">
-        <v>149.3</v>
+        <v>6.85</v>
       </c>
       <c r="J10" t="n">
-        <v>49866.2</v>
+        <v>72610</v>
       </c>
       <c r="K10" t="n">
-        <v>-49866.2</v>
+        <v>-72610</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>2023-08-01 09:31:00</t>
+          <t>2023-08-01 10:15:00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -647,31 +647,31 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>UBL-EQ</t>
+          <t>UBL31AUG23C1590</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>16713</v>
+        <v>177763</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="H11" t="n">
-        <v>31</v>
+        <v>1600</v>
       </c>
       <c r="I11" t="n">
-        <v>1594.15</v>
+        <v>55</v>
       </c>
       <c r="J11" t="n">
-        <v>49418.65</v>
+        <v>88000</v>
       </c>
       <c r="K11" t="n">
-        <v>-49418.65</v>
+        <v>-88000</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>2023-08-01 09:31:00</t>
+          <t>2023-08-01 10:15:00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -692,31 +692,31 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>EXIDEIND-EQ</t>
+          <t>EXIDEIND31AUG23C257.5</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>676</v>
+        <v>113914</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>3600</v>
       </c>
       <c r="H12" t="n">
-        <v>195</v>
+        <v>10800</v>
       </c>
       <c r="I12" t="n">
-        <v>256.2</v>
+        <v>8.9</v>
       </c>
       <c r="J12" t="n">
-        <v>49959</v>
+        <v>96120</v>
       </c>
       <c r="K12" t="n">
-        <v>-49959</v>
+        <v>-96120</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -727,7 +727,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>2023-08-01 09:31:00</t>
+          <t>2023-08-01 10:15:00</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -737,31 +737,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ASTRAL-EQ</t>
+          <t>ASTRAL31AUG23C2000</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>14418</v>
+        <v>86538</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>367</v>
       </c>
       <c r="H13" t="n">
-        <v>24</v>
+        <v>734</v>
       </c>
       <c r="I13" t="n">
-        <v>2035.5</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="J13" t="n">
-        <v>48852</v>
+        <v>70757.60000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>-48852</v>
+        <v>-70757.60000000001</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-08-01 09:31:00</t>
+          <t>2023-08-01 10:15:00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -782,31 +782,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NATIONALUM-EQ</t>
+          <t>NATIONALUM31AUG23C97</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6364</v>
+        <v>136627</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>7500</v>
       </c>
       <c r="H14" t="n">
-        <v>513</v>
+        <v>22500</v>
       </c>
       <c r="I14" t="n">
-        <v>97.34999999999999</v>
+        <v>3.85</v>
       </c>
       <c r="J14" t="n">
-        <v>49940.55</v>
+        <v>86625</v>
       </c>
       <c r="K14" t="n">
-        <v>-49940.55</v>
+        <v>-86625</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>2023-08-01 09:31:00</t>
+          <t>2023-08-01 10:15:00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -827,42 +827,42 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>POWERGRID-EQ</t>
+          <t>POWERGRID31AUG23P255</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>14977</v>
+        <v>140344</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>2700</v>
       </c>
       <c r="H15" t="n">
-        <v>195</v>
+        <v>16200</v>
       </c>
       <c r="I15" t="n">
-        <v>256.3</v>
+        <v>5.85</v>
       </c>
       <c r="J15" t="n">
-        <v>49978.5</v>
+        <v>94770</v>
       </c>
       <c r="K15" t="n">
-        <v>49978.5</v>
+        <v>-94770</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>2023-08-01 09:31:00</t>
+          <t>2023-08-01 10:15:00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -872,42 +872,42 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>IBULHSGFIN-EQ</t>
+          <t>IBULHSGFIN31AUG23P140</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>30125</v>
+        <v>128839</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>5100</v>
       </c>
       <c r="H16" t="n">
-        <v>351</v>
+        <v>20400</v>
       </c>
       <c r="I16" t="n">
-        <v>142.45</v>
+        <v>4.3</v>
       </c>
       <c r="J16" t="n">
-        <v>49999.95</v>
+        <v>87720</v>
       </c>
       <c r="K16" t="n">
-        <v>49999.95</v>
+        <v>-87720</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>2023-08-01 09:31:00</t>
+          <t>2023-08-01 10:15:00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -917,42 +917,42 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>APOLLOHOSP-EQ</t>
+          <t>APOLLOHOSP31AUG23P5100</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>157</v>
+        <v>76490</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="H17" t="n">
-        <v>9</v>
+        <v>500</v>
       </c>
       <c r="I17" t="n">
-        <v>5107.5</v>
+        <v>185</v>
       </c>
       <c r="J17" t="n">
-        <v>45967.5</v>
+        <v>92500</v>
       </c>
       <c r="K17" t="n">
-        <v>45967.5</v>
+        <v>-92500</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>2023-08-01 09:31:00</t>
+          <t>2023-08-01 10:15:00</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -962,42 +962,42 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>GODREJPROP-EQ</t>
+          <t>GODREJPROP31AUG23P1720</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>17875</v>
+        <v>116988</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>475</v>
       </c>
       <c r="H18" t="n">
-        <v>29</v>
+        <v>1425</v>
       </c>
       <c r="I18" t="n">
-        <v>1720.35</v>
+        <v>66.95</v>
       </c>
       <c r="J18" t="n">
-        <v>49890.15</v>
+        <v>95403.75</v>
       </c>
       <c r="K18" t="n">
-        <v>49890.15</v>
+        <v>-95403.75</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>2023-08-01 09:31:00</t>
+          <t>2023-08-01 10:15:00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1007,42 +1007,42 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>UPL-EQ</t>
+          <t>UPL31AUG23P620</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>11287</v>
+        <v>149645</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>1300</v>
       </c>
       <c r="H19" t="n">
-        <v>81</v>
+        <v>5200</v>
       </c>
       <c r="I19" t="n">
-        <v>613.95</v>
+        <v>19</v>
       </c>
       <c r="J19" t="n">
-        <v>49729.95</v>
+        <v>98800</v>
       </c>
       <c r="K19" t="n">
-        <v>49729.95</v>
+        <v>-98800</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>2023-08-01 09:40:00</t>
+          <t>2023-08-01 10:33:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1052,31 +1052,31 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>HINDCOPPER-EQ</t>
+          <t>HINDCOPPER31AUG23C150</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>17939</v>
+        <v>41033</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>5300</v>
       </c>
       <c r="H20" t="n">
-        <v>334</v>
+        <v>10600</v>
       </c>
       <c r="I20" t="n">
-        <v>149.3</v>
+        <v>7.15</v>
       </c>
       <c r="J20" t="n">
-        <v>49866.2</v>
+        <v>75790</v>
       </c>
       <c r="K20" t="n">
-        <v>49866.2</v>
+        <v>75790</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1087,41 +1087,41 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-08-01 09:40:00</t>
+          <t>2023-08-01 10:33:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>EXIDEIND</t>
+          <t>UBL</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>EXIDEIND-EQ</t>
+          <t>UBL31AUG23C1590</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>676</v>
+        <v>177763</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="H21" t="n">
-        <v>195</v>
+        <v>1600</v>
       </c>
       <c r="I21" t="n">
-        <v>255.8</v>
+        <v>51</v>
       </c>
       <c r="J21" t="n">
-        <v>49881</v>
+        <v>81600</v>
       </c>
       <c r="K21" t="n">
-        <v>49881</v>
+        <v>81600</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>2023-08-01 09:40:00</t>
+          <t>2023-08-01 10:35:00</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1142,31 +1142,31 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ASTRAL-EQ</t>
+          <t>ASTRAL31AUG23C2000</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>14418</v>
+        <v>86538</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>367</v>
       </c>
       <c r="H22" t="n">
-        <v>24</v>
+        <v>734</v>
       </c>
       <c r="I22" t="n">
-        <v>2033.6</v>
+        <v>88.5</v>
       </c>
       <c r="J22" t="n">
-        <v>48806.4</v>
+        <v>64959</v>
       </c>
       <c r="K22" t="n">
-        <v>48806.4</v>
+        <v>64959</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1177,41 +1177,41 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>2023-08-01 09:45:00</t>
+          <t>2023-08-01 11:04:00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>UBL</t>
+          <t>NATIONALUM</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>UBL-EQ</t>
+          <t>NATIONALUM31AUG23C97</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>16713</v>
+        <v>136627</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>7500</v>
       </c>
       <c r="H23" t="n">
-        <v>31</v>
+        <v>22500</v>
       </c>
       <c r="I23" t="n">
-        <v>1589.4</v>
+        <v>3.45</v>
       </c>
       <c r="J23" t="n">
-        <v>49271.4</v>
+        <v>77625</v>
       </c>
       <c r="K23" t="n">
-        <v>49271.4</v>
+        <v>77625</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1222,86 +1222,86 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>2023-08-01 09:45:00</t>
+          <t>2023-08-01 11:15:00</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NATIONALUM</t>
+          <t>HINDCOPPER</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NATIONALUM-EQ</t>
+          <t>HINDCOPPER31AUG23C152</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6364</v>
+        <v>45990</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>5300</v>
       </c>
       <c r="H24" t="n">
-        <v>513</v>
+        <v>10600</v>
       </c>
       <c r="I24" t="n">
-        <v>96.75</v>
+        <v>7.1</v>
       </c>
       <c r="J24" t="n">
-        <v>49632.75</v>
+        <v>75260</v>
       </c>
       <c r="K24" t="n">
-        <v>49632.75</v>
+        <v>-75260</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>2023-08-01 15:26:00</t>
+          <t>2023-08-01 11:15:00</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>POWERGRID</t>
+          <t>UBL</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>POWERGRID-EQ</t>
+          <t>UBL31AUG23C1590</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>14977</v>
+        <v>177763</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="H25" t="n">
-        <v>195</v>
+        <v>1600</v>
       </c>
       <c r="I25" t="n">
-        <v>251.9</v>
+        <v>54.6</v>
       </c>
       <c r="J25" t="n">
-        <v>49120.5</v>
+        <v>87360</v>
       </c>
       <c r="K25" t="n">
-        <v>-49120.5</v>
+        <v>-87360</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1312,41 +1312,41 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>2023-08-01 15:26:00</t>
+          <t>2023-08-01 11:15:00</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>IBULHSGFIN</t>
+          <t>EXIDEIND</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>IBULHSGFIN-EQ</t>
+          <t>EXIDEIND31AUG23C260</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>30125</v>
+        <v>113916</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>3600</v>
       </c>
       <c r="H26" t="n">
-        <v>351</v>
+        <v>7200</v>
       </c>
       <c r="I26" t="n">
-        <v>142.3</v>
+        <v>10</v>
       </c>
       <c r="J26" t="n">
-        <v>49947.3</v>
+        <v>72000</v>
       </c>
       <c r="K26" t="n">
-        <v>-49947.3</v>
+        <v>-72000</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1357,41 +1357,41 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>2023-08-01 15:26:00</t>
+          <t>2023-08-01 11:15:00</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>APOLLOHOSP</t>
+          <t>ASTRAL</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>APOLLOHOSP-EQ</t>
+          <t>ASTRAL31AUG23C2000</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>157</v>
+        <v>86538</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>367</v>
       </c>
       <c r="H27" t="n">
-        <v>9</v>
+        <v>734</v>
       </c>
       <c r="I27" t="n">
-        <v>5035</v>
+        <v>91.05</v>
       </c>
       <c r="J27" t="n">
-        <v>45315</v>
+        <v>66830.7</v>
       </c>
       <c r="K27" t="n">
-        <v>-45315</v>
+        <v>-66830.7</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1402,41 +1402,41 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>2023-08-01 15:26:00</t>
+          <t>2023-08-01 11:15:00</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>GODREJPROP</t>
+          <t>POWERGRID</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>GODREJPROP-EQ</t>
+          <t>POWERGRID31AUG23P252.5</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>17875</v>
+        <v>140342</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>2700</v>
       </c>
       <c r="H28" t="n">
-        <v>29</v>
+        <v>16200</v>
       </c>
       <c r="I28" t="n">
-        <v>1692.8</v>
+        <v>6.05</v>
       </c>
       <c r="J28" t="n">
-        <v>49091.2</v>
+        <v>98010</v>
       </c>
       <c r="K28" t="n">
-        <v>-49091.2</v>
+        <v>-98010</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1447,66 +1447,66 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>2023-08-01 15:26:00</t>
+          <t>2023-08-01 11:18:00</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>UPL</t>
+          <t>HINDCOPPER</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>UPL-EQ</t>
+          <t>HINDCOPPER31AUG23C152</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>11287</v>
+        <v>45990</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>5300</v>
       </c>
       <c r="H29" t="n">
-        <v>81</v>
+        <v>10600</v>
       </c>
       <c r="I29" t="n">
-        <v>626.3</v>
+        <v>6.3</v>
       </c>
       <c r="J29" t="n">
-        <v>50730.3</v>
+        <v>66780</v>
       </c>
       <c r="K29" t="n">
-        <v>-50730.3</v>
+        <v>66780</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>2023-08-01 12:15:00</t>
+          <t>2023-08-01 11:52:00</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>HINDCOPPER</t>
+          <t>EXIDEIND</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>HINDCOPPER31AUG23C152</t>
+          <t>EXIDEIND31AUG23C260</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>45990</v>
+        <v>113916</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1514,44 +1514,44 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>5300</v>
+        <v>3600</v>
       </c>
       <c r="H30" t="n">
-        <v>5300</v>
+        <v>7200</v>
       </c>
       <c r="I30" t="n">
-        <v>7.15</v>
+        <v>11.55</v>
       </c>
       <c r="J30" t="n">
-        <v>37895</v>
+        <v>83160</v>
       </c>
       <c r="K30" t="n">
-        <v>-37895</v>
+        <v>83160</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>2023-08-01 12:15:00</t>
+          <t>2023-08-01 12:06:00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>UBL</t>
+          <t>EXIDEIND</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>UBL31AUG23C1590</t>
+          <t>EXIDEIND31AUG23C257.5</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>177763</v>
+        <v>113914</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1559,23 +1559,23 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>400</v>
+        <v>3600</v>
       </c>
       <c r="H31" t="n">
-        <v>800</v>
+        <v>10800</v>
       </c>
       <c r="I31" t="n">
-        <v>53.35</v>
+        <v>14.05</v>
       </c>
       <c r="J31" t="n">
-        <v>42680</v>
+        <v>151740</v>
       </c>
       <c r="K31" t="n">
-        <v>-42680</v>
+        <v>151740</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -1587,16 +1587,16 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>EXIDEIND</t>
+          <t>HINDCOPPER</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>EXIDEIND31AUG23C265</t>
+          <t>HINDCOPPER31AUG23C152</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>113920</v>
+        <v>45990</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3600</v>
+        <v>5300</v>
       </c>
       <c r="H32" t="n">
-        <v>3600</v>
+        <v>10600</v>
       </c>
       <c r="I32" t="n">
-        <v>9.6</v>
+        <v>7.15</v>
       </c>
       <c r="J32" t="n">
-        <v>34560</v>
+        <v>75790</v>
       </c>
       <c r="K32" t="n">
-        <v>-34560</v>
+        <v>-75790</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1632,16 +1632,16 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>POWERGRID</t>
+          <t>UBL</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>POWERGRID31AUG23P252.5</t>
+          <t>UBL31AUG23C1590</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>140342</v>
+        <v>177763</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1649,19 +1649,19 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2700</v>
+        <v>400</v>
       </c>
       <c r="H33" t="n">
-        <v>8100</v>
+        <v>1600</v>
       </c>
       <c r="I33" t="n">
-        <v>5.85</v>
+        <v>53.35</v>
       </c>
       <c r="J33" t="n">
-        <v>47385</v>
+        <v>85360</v>
       </c>
       <c r="K33" t="n">
-        <v>-47385</v>
+        <v>-85360</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1677,16 +1677,16 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>IBULHSGFIN</t>
+          <t>EXIDEIND</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>IBULHSGFIN31AUG23P140</t>
+          <t>EXIDEIND31AUG23C265</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>128839</v>
+        <v>113920</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1694,19 +1694,19 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>5100</v>
+        <v>3600</v>
       </c>
       <c r="H34" t="n">
-        <v>10200</v>
+        <v>7200</v>
       </c>
       <c r="I34" t="n">
-        <v>4.3</v>
+        <v>9.6</v>
       </c>
       <c r="J34" t="n">
-        <v>43860</v>
+        <v>69120</v>
       </c>
       <c r="K34" t="n">
-        <v>-43860</v>
+        <v>-69120</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1717,21 +1717,21 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>2023-08-01 12:15:00</t>
+          <t>2023-08-01 12:37:00</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>APOLLOHOSP</t>
+          <t>EXIDEIND</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>APOLLOHOSP31AUG23P5050</t>
+          <t>EXIDEIND31AUG23C265</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>76486</v>
+        <v>113920</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1739,44 +1739,44 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>125</v>
+        <v>3600</v>
       </c>
       <c r="H35" t="n">
-        <v>250</v>
+        <v>7200</v>
       </c>
       <c r="I35" t="n">
-        <v>190</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J35" t="n">
-        <v>47500</v>
+        <v>63360</v>
       </c>
       <c r="K35" t="n">
-        <v>-47500</v>
+        <v>63360</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>2023-08-01 12:15:00</t>
+          <t>2023-08-01 12:40:00</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>GODREJPROP</t>
+          <t>ASTRAL</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>GODREJPROP31AUG23P1700</t>
+          <t>ASTRAL31AUG23C2000</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>116907</v>
+        <v>86538</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1784,30 +1784,30 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>475</v>
+        <v>367</v>
       </c>
       <c r="H36" t="n">
-        <v>475</v>
+        <v>734</v>
       </c>
       <c r="I36" t="n">
-        <v>64.3</v>
+        <v>86.25</v>
       </c>
       <c r="J36" t="n">
-        <v>30542.5</v>
+        <v>63307.5</v>
       </c>
       <c r="K36" t="n">
-        <v>-30542.5</v>
+        <v>63307.5</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>2023-08-01 12:16:00</t>
+          <t>2023-08-01 12:42:00</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1832,16 +1832,16 @@
         <v>5300</v>
       </c>
       <c r="H37" t="n">
-        <v>5300</v>
+        <v>10600</v>
       </c>
       <c r="I37" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="J37" t="n">
-        <v>37630</v>
+        <v>68900</v>
       </c>
       <c r="K37" t="n">
-        <v>37630</v>
+        <v>68900</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>2023-08-01 12:16:00</t>
+          <t>2023-08-01 13:05:00</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1877,16 +1877,16 @@
         <v>400</v>
       </c>
       <c r="H38" t="n">
-        <v>800</v>
+        <v>3200</v>
       </c>
       <c r="I38" t="n">
-        <v>54.1</v>
+        <v>48.55</v>
       </c>
       <c r="J38" t="n">
-        <v>43280</v>
+        <v>155360</v>
       </c>
       <c r="K38" t="n">
-        <v>43280</v>
+        <v>155360</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>2023-08-01 12:16:00</t>
+          <t>2023-08-01 13:15:00</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1907,11 +1907,11 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>EXIDEIND31AUG23C265</t>
+          <t>EXIDEIND31AUG23C262.5</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>113920</v>
+        <v>113918</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1922,20 +1922,20 @@
         <v>3600</v>
       </c>
       <c r="H39" t="n">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="I39" t="n">
-        <v>9.550000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="J39" t="n">
-        <v>34380</v>
+        <v>68400</v>
       </c>
       <c r="K39" t="n">
-        <v>34380</v>
+        <v>-68400</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1947,16 +1947,16 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>EXIDEIND</t>
+          <t>POWERGRID</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>EXIDEIND31AUG23C262.5</t>
+          <t>POWERGRID31AUG23P250</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>113918</v>
+        <v>140340</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3600</v>
+        <v>2700</v>
       </c>
       <c r="H40" t="n">
-        <v>3600</v>
+        <v>16200</v>
       </c>
       <c r="I40" t="n">
-        <v>9.5</v>
+        <v>5.6</v>
       </c>
       <c r="J40" t="n">
-        <v>34200</v>
+        <v>90720</v>
       </c>
       <c r="K40" t="n">
-        <v>-34200</v>
+        <v>-90720</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -1992,16 +1992,16 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>POWERGRID</t>
+          <t>IBULHSGFIN</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>POWERGRID31AUG23P250</t>
+          <t>IBULHSGFIN31AUG23P140</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>140340</v>
+        <v>128839</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2009,19 +2009,19 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2700</v>
+        <v>5100</v>
       </c>
       <c r="H41" t="n">
-        <v>8100</v>
+        <v>20400</v>
       </c>
       <c r="I41" t="n">
-        <v>5.6</v>
+        <v>4.3</v>
       </c>
       <c r="J41" t="n">
-        <v>45360</v>
+        <v>87720</v>
       </c>
       <c r="K41" t="n">
-        <v>-45360</v>
+        <v>-87720</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2037,16 +2037,16 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>IBULHSGFIN</t>
+          <t>APOLLOHOSP</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>IBULHSGFIN31AUG23P140</t>
+          <t>APOLLOHOSP31AUG23P5050</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>128839</v>
+        <v>76486</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2054,19 +2054,19 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>5100</v>
+        <v>125</v>
       </c>
       <c r="H42" t="n">
-        <v>10200</v>
+        <v>500</v>
       </c>
       <c r="I42" t="n">
-        <v>4.3</v>
+        <v>185.75</v>
       </c>
       <c r="J42" t="n">
-        <v>43860</v>
+        <v>92875</v>
       </c>
       <c r="K42" t="n">
-        <v>-43860</v>
+        <v>-92875</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2082,16 +2082,16 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>APOLLOHOSP</t>
+          <t>GODREJPROP</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>APOLLOHOSP31AUG23P5050</t>
+          <t>GODREJPROP31AUG23P1700</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>76486</v>
+        <v>116907</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2099,19 +2099,19 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>125</v>
+        <v>475</v>
       </c>
       <c r="H43" t="n">
-        <v>250</v>
+        <v>1425</v>
       </c>
       <c r="I43" t="n">
-        <v>185.75</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="J43" t="n">
-        <v>46437.5</v>
+        <v>92482.5</v>
       </c>
       <c r="K43" t="n">
-        <v>-46437.5</v>
+        <v>-92482.5</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2122,21 +2122,21 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>2023-08-01 13:15:00</t>
+          <t>2023-08-01 15:26:00</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>GODREJPROP</t>
+          <t>EXIDEIND</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>GODREJPROP31AUG23P1700</t>
+          <t>EXIDEIND31AUG23C262.5</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>116907</v>
+        <v>113918</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2144,44 +2144,44 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>475</v>
+        <v>3600</v>
       </c>
       <c r="H44" t="n">
-        <v>475</v>
+        <v>7200</v>
       </c>
       <c r="I44" t="n">
-        <v>64.90000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="J44" t="n">
-        <v>30827.5</v>
+        <v>72720</v>
       </c>
       <c r="K44" t="n">
-        <v>-30827.5</v>
+        <v>72720</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>2023-08-01 13:15:00</t>
+          <t>2023-08-01 15:26:00</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>EXIDEIND</t>
+          <t>POWERGRID</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>EXIDEIND31AUG23C262.5</t>
+          <t>POWERGRID31AUG23P255</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>113918</v>
+        <v>140344</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2189,19 +2189,19 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3600</v>
+        <v>2700</v>
       </c>
       <c r="H45" t="n">
-        <v>3600</v>
+        <v>16200</v>
       </c>
       <c r="I45" t="n">
-        <v>9.5</v>
+        <v>7.45</v>
       </c>
       <c r="J45" t="n">
-        <v>34200</v>
+        <v>120690</v>
       </c>
       <c r="K45" t="n">
-        <v>34200</v>
+        <v>120690</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2212,21 +2212,21 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>2023-08-01 14:15:00</t>
+          <t>2023-08-01 15:26:00</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>EXIDEIND</t>
+          <t>POWERGRID</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>EXIDEIND31AUG23C265</t>
+          <t>POWERGRID31AUG23P252.5</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>113920</v>
+        <v>140342</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2234,44 +2234,44 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3600</v>
+        <v>2700</v>
       </c>
       <c r="H46" t="n">
-        <v>3600</v>
+        <v>16200</v>
       </c>
       <c r="I46" t="n">
-        <v>9.300000000000001</v>
+        <v>6</v>
       </c>
       <c r="J46" t="n">
-        <v>33480</v>
+        <v>97200</v>
       </c>
       <c r="K46" t="n">
-        <v>-33480</v>
+        <v>97200</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>2023-08-01 14:15:00</t>
+          <t>2023-08-01 15:26:00</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>EXIDEIND</t>
+          <t>POWERGRID</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>EXIDEIND31AUG23C265</t>
+          <t>POWERGRID31AUG23P250</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>113920</v>
+        <v>140340</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2279,19 +2279,19 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3600</v>
+        <v>2700</v>
       </c>
       <c r="H47" t="n">
-        <v>3600</v>
+        <v>16200</v>
       </c>
       <c r="I47" t="n">
-        <v>9.300000000000001</v>
+        <v>4.85</v>
       </c>
       <c r="J47" t="n">
-        <v>33480</v>
+        <v>78570</v>
       </c>
       <c r="K47" t="n">
-        <v>33480</v>
+        <v>78570</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2307,16 +2307,16 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>POWERGRID</t>
+          <t>IBULHSGFIN</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>POWERGRID31AUG23P252.5</t>
+          <t>IBULHSGFIN31AUG23P140</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>140342</v>
+        <v>128839</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2324,19 +2324,19 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2700</v>
+        <v>5100</v>
       </c>
       <c r="H48" t="n">
-        <v>8100</v>
+        <v>40800</v>
       </c>
       <c r="I48" t="n">
-        <v>6</v>
+        <v>4.3</v>
       </c>
       <c r="J48" t="n">
-        <v>48600</v>
+        <v>175440</v>
       </c>
       <c r="K48" t="n">
-        <v>48600</v>
+        <v>175440</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2352,16 +2352,16 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>POWERGRID</t>
+          <t>APOLLOHOSP</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>POWERGRID31AUG23P250</t>
+          <t>APOLLOHOSP31AUG23P5100</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>140340</v>
+        <v>76490</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2369,19 +2369,19 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2700</v>
+        <v>125</v>
       </c>
       <c r="H49" t="n">
-        <v>8100</v>
+        <v>500</v>
       </c>
       <c r="I49" t="n">
-        <v>4.85</v>
+        <v>216.35</v>
       </c>
       <c r="J49" t="n">
-        <v>39285</v>
+        <v>108175</v>
       </c>
       <c r="K49" t="n">
-        <v>39285</v>
+        <v>108175</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2397,16 +2397,16 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>IBULHSGFIN</t>
+          <t>APOLLOHOSP</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>IBULHSGFIN31AUG23P140</t>
+          <t>APOLLOHOSP31AUG23P5050</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>128839</v>
+        <v>76486</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2414,19 +2414,19 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>5100</v>
+        <v>125</v>
       </c>
       <c r="H50" t="n">
-        <v>20400</v>
+        <v>500</v>
       </c>
       <c r="I50" t="n">
-        <v>4.3</v>
+        <v>191.55</v>
       </c>
       <c r="J50" t="n">
-        <v>87720</v>
+        <v>95775</v>
       </c>
       <c r="K50" t="n">
-        <v>87720</v>
+        <v>95775</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2442,16 +2442,16 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>APOLLOHOSP</t>
+          <t>GODREJPROP</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>APOLLOHOSP31AUG23P5050</t>
+          <t>GODREJPROP31AUG23P1720</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>76486</v>
+        <v>116988</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2459,19 +2459,19 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>125</v>
+        <v>475</v>
       </c>
       <c r="H51" t="n">
-        <v>500</v>
+        <v>1425</v>
       </c>
       <c r="I51" t="n">
-        <v>191.55</v>
+        <v>77.2</v>
       </c>
       <c r="J51" t="n">
-        <v>95775</v>
+        <v>110010</v>
       </c>
       <c r="K51" t="n">
-        <v>95775</v>
+        <v>110010</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2507,16 +2507,16 @@
         <v>475</v>
       </c>
       <c r="H52" t="n">
-        <v>950</v>
+        <v>1425</v>
       </c>
       <c r="I52" t="n">
         <v>65.65000000000001</v>
       </c>
       <c r="J52" t="n">
-        <v>62367.5</v>
+        <v>93551.25</v>
       </c>
       <c r="K52" t="n">
-        <v>62367.5</v>
+        <v>93551.25</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2524,56 +2524,56 @@
         </is>
       </c>
     </row>
-    <row r="53"/>
-    <row r="54">
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2023-08-01 09:31:00</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>HINDCOPPER</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>HINDCOPPER-EQ</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
-        <v>17939</v>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G54" t="n">
-        <v>1</v>
-      </c>
-      <c r="H54" t="n">
-        <v>334</v>
-      </c>
-      <c r="I54" t="n">
-        <v>149.3</v>
-      </c>
-      <c r="J54" t="n">
-        <v>49866.2</v>
-      </c>
-      <c r="K54" t="n">
-        <v>-49866.2</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
+    <row r="53">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2023-08-01 15:26:00</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>UPL</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>UPL31AUG23P620</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>149645</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>1300</v>
+      </c>
+      <c r="H53" t="n">
+        <v>5200</v>
+      </c>
+      <c r="I53" t="n">
+        <v>16</v>
+      </c>
+      <c r="J53" t="n">
+        <v>83200</v>
+      </c>
+      <c r="K53" t="n">
+        <v>83200</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="54"/>
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>2023-08-01 09:40:00</t>
+          <t>2023-08-01 10:15:00</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2583,98 +2583,98 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>HINDCOPPER-EQ</t>
+          <t>HINDCOPPER31AUG23C150</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>17939</v>
+        <v>41033</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>5300</v>
       </c>
       <c r="H55" t="n">
-        <v>334</v>
+        <v>10600</v>
       </c>
       <c r="I55" t="n">
-        <v>149.3</v>
+        <v>6.85</v>
       </c>
       <c r="J55" t="n">
-        <v>49866.2</v>
+        <v>72610</v>
       </c>
       <c r="K55" t="n">
-        <v>49866.2</v>
+        <v>-72610</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2023-08-01 10:33:00</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>HINDCOPPER</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>HINDCOPPER31AUG23C150</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>41033</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>5300</v>
+      </c>
+      <c r="H56" t="n">
+        <v>10600</v>
+      </c>
+      <c r="I56" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="J56" t="n">
+        <v>75790</v>
+      </c>
+      <c r="K56" t="n">
+        <v>75790</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="L56" t="inlineStr">
+    <row r="57">
+      <c r="L57" t="inlineStr">
         <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57"/>
-    <row r="58">
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2023-08-01 12:15:00</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>HINDCOPPER</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>HINDCOPPER31AUG23C152</t>
-        </is>
-      </c>
-      <c r="E58" t="n">
-        <v>45990</v>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G58" t="n">
-        <v>5300</v>
-      </c>
-      <c r="H58" t="n">
-        <v>5300</v>
-      </c>
-      <c r="I58" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="J58" t="n">
-        <v>37895</v>
-      </c>
-      <c r="K58" t="n">
-        <v>-37895</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
+      <c r="M57" t="n">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="58"/>
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>2023-08-01 12:16:00</t>
+          <t>2023-08-01 11:15:00</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2699,139 +2699,218 @@
         <v>5300</v>
       </c>
       <c r="H59" t="n">
-        <v>5300</v>
+        <v>10600</v>
       </c>
       <c r="I59" t="n">
         <v>7.1</v>
       </c>
       <c r="J59" t="n">
-        <v>37630</v>
+        <v>75260</v>
       </c>
       <c r="K59" t="n">
-        <v>37630</v>
+        <v>-75260</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2023-08-01 11:18:00</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>HINDCOPPER</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>HINDCOPPER31AUG23C152</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>45990</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>5300</v>
+      </c>
+      <c r="H60" t="n">
+        <v>10600</v>
+      </c>
+      <c r="I60" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="J60" t="n">
+        <v>66780</v>
+      </c>
+      <c r="K60" t="n">
+        <v>66780</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>-265</v>
-      </c>
-    </row>
-    <row r="61"/>
+    <row r="61">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2023-08-01 12:15:00</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>HINDCOPPER</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>HINDCOPPER31AUG23C152</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>45990</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>5300</v>
+      </c>
+      <c r="H61" t="n">
+        <v>10600</v>
+      </c>
+      <c r="I61" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="J61" t="n">
+        <v>75790</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-75790</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>2023-08-01 09:31:00</t>
+          <t>2023-08-01 12:42:00</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>HINDCOPPER</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>HINDCOPPER31AUG23C152</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>45990</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>5300</v>
+      </c>
+      <c r="H62" t="n">
+        <v>10600</v>
+      </c>
+      <c r="I62" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J62" t="n">
+        <v>68900</v>
+      </c>
+      <c r="K62" t="n">
+        <v>68900</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
+        <v>-15370</v>
+      </c>
+    </row>
+    <row r="64"/>
+    <row r="65">
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2023-08-01 10:15:00</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
           <t>UBL</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>UBL-EQ</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
-        <v>16713</v>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G62" t="n">
-        <v>1</v>
-      </c>
-      <c r="H62" t="n">
-        <v>31</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1594.15</v>
-      </c>
-      <c r="J62" t="n">
-        <v>49418.65</v>
-      </c>
-      <c r="K62" t="n">
-        <v>-49418.65</v>
-      </c>
-      <c r="L62" t="inlineStr">
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>UBL31AUG23C1590</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>177763</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>400</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1600</v>
+      </c>
+      <c r="I65" t="n">
+        <v>55</v>
+      </c>
+      <c r="J65" t="n">
+        <v>88000</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-88000</v>
+      </c>
+      <c r="L65" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2023-08-01 09:45:00</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>UBL</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>UBL-EQ</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>16713</v>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G63" t="n">
-        <v>1</v>
-      </c>
-      <c r="H63" t="n">
-        <v>31</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1589.4</v>
-      </c>
-      <c r="J63" t="n">
-        <v>49271.4</v>
-      </c>
-      <c r="K63" t="n">
-        <v>49271.4</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>-147.25</v>
-      </c>
-    </row>
-    <row r="65"/>
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>2023-08-01 12:15:00</t>
+          <t>2023-08-01 10:33:00</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2856,27 +2935,27 @@
         <v>400</v>
       </c>
       <c r="H66" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="I66" t="n">
-        <v>53.35</v>
+        <v>51</v>
       </c>
       <c r="J66" t="n">
-        <v>42680</v>
+        <v>81600</v>
       </c>
       <c r="K66" t="n">
-        <v>-42680</v>
+        <v>81600</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>2023-08-01 12:16:00</t>
+          <t>2023-08-01 11:15:00</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2901,229 +2980,229 @@
         <v>400</v>
       </c>
       <c r="H67" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="I67" t="n">
-        <v>54.1</v>
+        <v>54.6</v>
       </c>
       <c r="J67" t="n">
-        <v>43280</v>
+        <v>87360</v>
       </c>
       <c r="K67" t="n">
-        <v>43280</v>
+        <v>-87360</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2023-08-01 12:15:00</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>UBL</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>UBL31AUG23C1590</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>177763</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>400</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1600</v>
+      </c>
+      <c r="I68" t="n">
+        <v>53.35</v>
+      </c>
+      <c r="J68" t="n">
+        <v>85360</v>
+      </c>
+      <c r="K68" t="n">
+        <v>-85360</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2023-08-01 13:05:00</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>UBL</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>UBL31AUG23C1590</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>177763</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>400</v>
+      </c>
+      <c r="H69" t="n">
+        <v>3200</v>
+      </c>
+      <c r="I69" t="n">
+        <v>48.55</v>
+      </c>
+      <c r="J69" t="n">
+        <v>155360</v>
+      </c>
+      <c r="K69" t="n">
+        <v>155360</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="L68" t="inlineStr">
+    <row r="70">
+      <c r="L70" t="inlineStr">
         <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M68" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="69"/>
-    <row r="70">
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2023-08-01 09:31:00</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
+      <c r="M70" t="n">
+        <v>-23760</v>
+      </c>
+    </row>
+    <row r="71"/>
+    <row r="72">
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2023-08-01 10:15:00</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
         <is>
           <t>EXIDEIND</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>EXIDEIND-EQ</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
-        <v>676</v>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G70" t="n">
-        <v>1</v>
-      </c>
-      <c r="H70" t="n">
-        <v>195</v>
-      </c>
-      <c r="I70" t="n">
-        <v>256.2</v>
-      </c>
-      <c r="J70" t="n">
-        <v>49959</v>
-      </c>
-      <c r="K70" t="n">
-        <v>-49959</v>
-      </c>
-      <c r="L70" t="inlineStr">
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>EXIDEIND31AUG23C257.5</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>113914</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>3600</v>
+      </c>
+      <c r="H72" t="n">
+        <v>10800</v>
+      </c>
+      <c r="I72" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="J72" t="n">
+        <v>96120</v>
+      </c>
+      <c r="K72" t="n">
+        <v>-96120</v>
+      </c>
+      <c r="L72" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2023-08-01 09:40:00</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
+    <row r="73">
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2023-08-01 12:06:00</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
         <is>
           <t>EXIDEIND</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>EXIDEIND-EQ</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>676</v>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G71" t="n">
-        <v>1</v>
-      </c>
-      <c r="H71" t="n">
-        <v>195</v>
-      </c>
-      <c r="I71" t="n">
-        <v>255.8</v>
-      </c>
-      <c r="J71" t="n">
-        <v>49881</v>
-      </c>
-      <c r="K71" t="n">
-        <v>49881</v>
-      </c>
-      <c r="L71" t="inlineStr">
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>EXIDEIND31AUG23C257.5</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>113914</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>3600</v>
+      </c>
+      <c r="H73" t="n">
+        <v>10800</v>
+      </c>
+      <c r="I73" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="J73" t="n">
+        <v>151740</v>
+      </c>
+      <c r="K73" t="n">
+        <v>151740</v>
+      </c>
+      <c r="L73" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="L72" t="inlineStr">
+    <row r="74">
+      <c r="L74" t="inlineStr">
         <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M72" t="n">
-        <v>-78</v>
-      </c>
-    </row>
-    <row r="73"/>
-    <row r="74">
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2023-08-01 12:15:00</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>EXIDEIND</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>EXIDEIND31AUG23C265</t>
-        </is>
-      </c>
-      <c r="E74" t="n">
-        <v>113920</v>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G74" t="n">
-        <v>3600</v>
-      </c>
-      <c r="H74" t="n">
-        <v>3600</v>
-      </c>
-      <c r="I74" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="J74" t="n">
-        <v>34560</v>
-      </c>
-      <c r="K74" t="n">
-        <v>-34560</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2023-08-01 12:16:00</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>EXIDEIND</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>EXIDEIND31AUG23C265</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
-        <v>113920</v>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G75" t="n">
-        <v>3600</v>
-      </c>
-      <c r="H75" t="n">
-        <v>3600</v>
-      </c>
-      <c r="I75" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="J75" t="n">
-        <v>34380</v>
-      </c>
-      <c r="K75" t="n">
-        <v>34380</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
+      <c r="M74" t="n">
+        <v>55620</v>
+      </c>
+    </row>
+    <row r="75"/>
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>2023-08-01 14:15:00</t>
+          <t>2023-08-01 11:15:00</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3133,11 +3212,11 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>EXIDEIND31AUG23C265</t>
+          <t>EXIDEIND31AUG23C260</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>113920</v>
+        <v>113916</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -3148,16 +3227,16 @@
         <v>3600</v>
       </c>
       <c r="H76" t="n">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="I76" t="n">
-        <v>9.300000000000001</v>
+        <v>10</v>
       </c>
       <c r="J76" t="n">
-        <v>33480</v>
+        <v>72000</v>
       </c>
       <c r="K76" t="n">
-        <v>-33480</v>
+        <v>-72000</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3168,7 +3247,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>2023-08-01 14:15:00</t>
+          <t>2023-08-01 11:52:00</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3178,11 +3257,11 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>EXIDEIND31AUG23C265</t>
+          <t>EXIDEIND31AUG23C260</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>113920</v>
+        <v>113916</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -3193,16 +3272,16 @@
         <v>3600</v>
       </c>
       <c r="H77" t="n">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="I77" t="n">
-        <v>9.300000000000001</v>
+        <v>11.55</v>
       </c>
       <c r="J77" t="n">
-        <v>33480</v>
+        <v>83160</v>
       </c>
       <c r="K77" t="n">
-        <v>33480</v>
+        <v>83160</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3217,14 +3296,14 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-180</v>
+        <v>11160</v>
       </c>
     </row>
     <row r="79"/>
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>2023-08-01 13:15:00</t>
+          <t>2023-08-01 12:15:00</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3234,11 +3313,11 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>EXIDEIND31AUG23C262.5</t>
+          <t>EXIDEIND31AUG23C265</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>113918</v>
+        <v>113920</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -3249,16 +3328,16 @@
         <v>3600</v>
       </c>
       <c r="H80" t="n">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="I80" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="J80" t="n">
-        <v>34200</v>
+        <v>69120</v>
       </c>
       <c r="K80" t="n">
-        <v>-34200</v>
+        <v>-69120</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3269,7 +3348,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>2023-08-01 13:15:00</t>
+          <t>2023-08-01 12:37:00</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3279,11 +3358,11 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>EXIDEIND31AUG23C262.5</t>
+          <t>EXIDEIND31AUG23C265</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>113918</v>
+        <v>113920</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -3294,16 +3373,16 @@
         <v>3600</v>
       </c>
       <c r="H81" t="n">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="I81" t="n">
-        <v>9.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J81" t="n">
-        <v>34200</v>
+        <v>63360</v>
       </c>
       <c r="K81" t="n">
-        <v>34200</v>
+        <v>63360</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3318,48 +3397,48 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>0</v>
+        <v>-5759.999999999993</v>
       </c>
     </row>
     <row r="83"/>
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>2023-08-01 09:31:00</t>
+          <t>2023-08-01 13:15:00</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>ASTRAL</t>
+          <t>EXIDEIND</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>ASTRAL-EQ</t>
+          <t>EXIDEIND31AUG23C262.5</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>14418</v>
+        <v>113918</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>3600</v>
       </c>
       <c r="H84" t="n">
-        <v>24</v>
+        <v>7200</v>
       </c>
       <c r="I84" t="n">
-        <v>2035.5</v>
+        <v>9.5</v>
       </c>
       <c r="J84" t="n">
-        <v>48852</v>
+        <v>68400</v>
       </c>
       <c r="K84" t="n">
-        <v>-48852</v>
+        <v>-68400</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3370,41 +3449,41 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>2023-08-01 09:40:00</t>
+          <t>2023-08-01 15:26:00</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>ASTRAL</t>
+          <t>EXIDEIND</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>ASTRAL-EQ</t>
+          <t>EXIDEIND31AUG23C262.5</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>14418</v>
+        <v>113918</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>3600</v>
       </c>
       <c r="H85" t="n">
-        <v>24</v>
+        <v>7200</v>
       </c>
       <c r="I85" t="n">
-        <v>2033.6</v>
+        <v>10.1</v>
       </c>
       <c r="J85" t="n">
-        <v>48806.4</v>
+        <v>72720</v>
       </c>
       <c r="K85" t="n">
-        <v>48806.4</v>
+        <v>72720</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3419,48 +3498,48 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-45.60000000000582</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="87"/>
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>2023-08-01 09:31:00</t>
+          <t>2023-08-01 10:15:00</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>NATIONALUM</t>
+          <t>ASTRAL</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>NATIONALUM-EQ</t>
+          <t>ASTRAL31AUG23C2000</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>6364</v>
+        <v>86538</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>367</v>
       </c>
       <c r="H88" t="n">
-        <v>513</v>
+        <v>734</v>
       </c>
       <c r="I88" t="n">
-        <v>97.34999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="J88" t="n">
-        <v>49940.55</v>
+        <v>70757.60000000001</v>
       </c>
       <c r="K88" t="n">
-        <v>-49940.55</v>
+        <v>-70757.60000000001</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -3471,557 +3550,557 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>2023-08-01 09:45:00</t>
+          <t>2023-08-01 10:35:00</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>ASTRAL</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>ASTRAL31AUG23C2000</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>86538</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>367</v>
+      </c>
+      <c r="H89" t="n">
+        <v>734</v>
+      </c>
+      <c r="I89" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="J89" t="n">
+        <v>64959</v>
+      </c>
+      <c r="K89" t="n">
+        <v>64959</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2023-08-01 11:15:00</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>ASTRAL</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>ASTRAL31AUG23C2000</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>86538</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>367</v>
+      </c>
+      <c r="H90" t="n">
+        <v>734</v>
+      </c>
+      <c r="I90" t="n">
+        <v>91.05</v>
+      </c>
+      <c r="J90" t="n">
+        <v>66830.7</v>
+      </c>
+      <c r="K90" t="n">
+        <v>-66830.7</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2023-08-01 12:40:00</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>ASTRAL</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>ASTRAL31AUG23C2000</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>86538</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>367</v>
+      </c>
+      <c r="H91" t="n">
+        <v>734</v>
+      </c>
+      <c r="I91" t="n">
+        <v>86.25</v>
+      </c>
+      <c r="J91" t="n">
+        <v>63307.5</v>
+      </c>
+      <c r="K91" t="n">
+        <v>63307.5</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>-9321.800000000003</v>
+      </c>
+    </row>
+    <row r="93"/>
+    <row r="94">
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2023-08-01 10:15:00</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
           <t>NATIONALUM</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>NATIONALUM-EQ</t>
-        </is>
-      </c>
-      <c r="E89" t="n">
-        <v>6364</v>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G89" t="n">
-        <v>1</v>
-      </c>
-      <c r="H89" t="n">
-        <v>513</v>
-      </c>
-      <c r="I89" t="n">
-        <v>96.75</v>
-      </c>
-      <c r="J89" t="n">
-        <v>49632.75</v>
-      </c>
-      <c r="K89" t="n">
-        <v>49632.75</v>
-      </c>
-      <c r="L89" t="inlineStr">
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>NATIONALUM31AUG23C97</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>136627</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>7500</v>
+      </c>
+      <c r="H94" t="n">
+        <v>22500</v>
+      </c>
+      <c r="I94" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J94" t="n">
+        <v>86625</v>
+      </c>
+      <c r="K94" t="n">
+        <v>-86625</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2023-08-01 11:04:00</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>NATIONALUM</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>NATIONALUM31AUG23C97</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>136627</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>7500</v>
+      </c>
+      <c r="H95" t="n">
+        <v>22500</v>
+      </c>
+      <c r="I95" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J95" t="n">
+        <v>77625</v>
+      </c>
+      <c r="K95" t="n">
+        <v>77625</v>
+      </c>
+      <c r="L95" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="90">
-      <c r="L90" t="inlineStr">
+    <row r="96">
+      <c r="L96" t="inlineStr">
         <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M90" t="n">
-        <v>-307.8000000000029</v>
-      </c>
-    </row>
-    <row r="91"/>
-    <row r="92">
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2023-08-01 09:31:00</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
+      <c r="M96" t="n">
+        <v>-9000</v>
+      </c>
+    </row>
+    <row r="97"/>
+    <row r="98">
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2023-08-01 10:15:00</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
         <is>
           <t>POWERGRID</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>POWERGRID-EQ</t>
-        </is>
-      </c>
-      <c r="E92" t="n">
-        <v>14977</v>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G92" t="n">
-        <v>1</v>
-      </c>
-      <c r="H92" t="n">
-        <v>195</v>
-      </c>
-      <c r="I92" t="n">
-        <v>256.3</v>
-      </c>
-      <c r="J92" t="n">
-        <v>49978.5</v>
-      </c>
-      <c r="K92" t="n">
-        <v>49978.5</v>
-      </c>
-      <c r="L92" t="inlineStr">
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>POWERGRID31AUG23P255</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>140344</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>2700</v>
+      </c>
+      <c r="H98" t="n">
+        <v>16200</v>
+      </c>
+      <c r="I98" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="J98" t="n">
+        <v>94770</v>
+      </c>
+      <c r="K98" t="n">
+        <v>-94770</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2023-08-01 15:26:00</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>POWERGRID</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>POWERGRID31AUG23P255</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>140344</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>2700</v>
+      </c>
+      <c r="H99" t="n">
+        <v>16200</v>
+      </c>
+      <c r="I99" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="J99" t="n">
+        <v>120690</v>
+      </c>
+      <c r="K99" t="n">
+        <v>120690</v>
+      </c>
+      <c r="L99" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="93">
-      <c r="B93" t="inlineStr">
+    <row r="100">
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
+        <v>25920</v>
+      </c>
+    </row>
+    <row r="101"/>
+    <row r="102">
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2023-08-01 11:15:00</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>POWERGRID</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>POWERGRID31AUG23P252.5</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>140342</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>2700</v>
+      </c>
+      <c r="H102" t="n">
+        <v>16200</v>
+      </c>
+      <c r="I102" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="J102" t="n">
+        <v>98010</v>
+      </c>
+      <c r="K102" t="n">
+        <v>-98010</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" t="inlineStr">
         <is>
           <t>2023-08-01 15:26:00</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t>POWERGRID</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>POWERGRID-EQ</t>
-        </is>
-      </c>
-      <c r="E93" t="n">
-        <v>14977</v>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G93" t="n">
-        <v>1</v>
-      </c>
-      <c r="H93" t="n">
-        <v>195</v>
-      </c>
-      <c r="I93" t="n">
-        <v>251.9</v>
-      </c>
-      <c r="J93" t="n">
-        <v>49120.5</v>
-      </c>
-      <c r="K93" t="n">
-        <v>-49120.5</v>
-      </c>
-      <c r="L93" t="inlineStr">
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>POWERGRID31AUG23P252.5</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>140342</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>2700</v>
+      </c>
+      <c r="H103" t="n">
+        <v>16200</v>
+      </c>
+      <c r="I103" t="n">
+        <v>6</v>
+      </c>
+      <c r="J103" t="n">
+        <v>97200</v>
+      </c>
+      <c r="K103" t="n">
+        <v>97200</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>-810</v>
+      </c>
+    </row>
+    <row r="105"/>
+    <row r="106">
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2023-08-01 13:15:00</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>POWERGRID</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>POWERGRID31AUG23P250</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>140340</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>2700</v>
+      </c>
+      <c r="H106" t="n">
+        <v>16200</v>
+      </c>
+      <c r="I106" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J106" t="n">
+        <v>90720</v>
+      </c>
+      <c r="K106" t="n">
+        <v>-90720</v>
+      </c>
+      <c r="L106" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="94">
-      <c r="L94" t="inlineStr">
+    <row r="107">
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2023-08-01 15:26:00</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>POWERGRID</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>POWERGRID31AUG23P250</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>140340</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>2700</v>
+      </c>
+      <c r="H107" t="n">
+        <v>16200</v>
+      </c>
+      <c r="I107" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="J107" t="n">
+        <v>78570</v>
+      </c>
+      <c r="K107" t="n">
+        <v>78570</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="L108" t="inlineStr">
         <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M94" t="n">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="95"/>
-    <row r="96">
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2023-08-01 12:15:00</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>POWERGRID</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>POWERGRID31AUG23P252.5</t>
-        </is>
-      </c>
-      <c r="E96" t="n">
-        <v>140342</v>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G96" t="n">
-        <v>2700</v>
-      </c>
-      <c r="H96" t="n">
-        <v>8100</v>
-      </c>
-      <c r="I96" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="J96" t="n">
-        <v>47385</v>
-      </c>
-      <c r="K96" t="n">
-        <v>-47385</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2023-08-01 15:26:00</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>POWERGRID</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>POWERGRID31AUG23P252.5</t>
-        </is>
-      </c>
-      <c r="E97" t="n">
-        <v>140342</v>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G97" t="n">
-        <v>2700</v>
-      </c>
-      <c r="H97" t="n">
-        <v>8100</v>
-      </c>
-      <c r="I97" t="n">
-        <v>6</v>
-      </c>
-      <c r="J97" t="n">
-        <v>48600</v>
-      </c>
-      <c r="K97" t="n">
-        <v>48600</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="99"/>
-    <row r="100">
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2023-08-01 13:15:00</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>POWERGRID</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>POWERGRID31AUG23P250</t>
-        </is>
-      </c>
-      <c r="E100" t="n">
-        <v>140340</v>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G100" t="n">
-        <v>2700</v>
-      </c>
-      <c r="H100" t="n">
-        <v>8100</v>
-      </c>
-      <c r="I100" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="J100" t="n">
-        <v>45360</v>
-      </c>
-      <c r="K100" t="n">
-        <v>-45360</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2023-08-01 15:26:00</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>POWERGRID</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>POWERGRID31AUG23P250</t>
-        </is>
-      </c>
-      <c r="E101" t="n">
-        <v>140340</v>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G101" t="n">
-        <v>2700</v>
-      </c>
-      <c r="H101" t="n">
-        <v>8100</v>
-      </c>
-      <c r="I101" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="J101" t="n">
-        <v>39285</v>
-      </c>
-      <c r="K101" t="n">
-        <v>39285</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>-6075</v>
-      </c>
-    </row>
-    <row r="103"/>
-    <row r="104">
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2023-08-01 09:31:00</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>IBULHSGFIN</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>IBULHSGFIN-EQ</t>
-        </is>
-      </c>
-      <c r="E104" t="n">
-        <v>30125</v>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G104" t="n">
-        <v>1</v>
-      </c>
-      <c r="H104" t="n">
-        <v>351</v>
-      </c>
-      <c r="I104" t="n">
-        <v>142.45</v>
-      </c>
-      <c r="J104" t="n">
-        <v>49999.95</v>
-      </c>
-      <c r="K104" t="n">
-        <v>49999.95</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2023-08-01 15:26:00</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>IBULHSGFIN</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>IBULHSGFIN-EQ</t>
-        </is>
-      </c>
-      <c r="E105" t="n">
-        <v>30125</v>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G105" t="n">
-        <v>1</v>
-      </c>
-      <c r="H105" t="n">
-        <v>351</v>
-      </c>
-      <c r="I105" t="n">
-        <v>142.3</v>
-      </c>
-      <c r="J105" t="n">
-        <v>49947.3</v>
-      </c>
-      <c r="K105" t="n">
-        <v>-49947.3</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>52.64999999999418</v>
-      </c>
-    </row>
-    <row r="107"/>
-    <row r="108">
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2023-08-01 12:15:00</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>IBULHSGFIN</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>IBULHSGFIN31AUG23P140</t>
-        </is>
-      </c>
-      <c r="E108" t="n">
-        <v>128839</v>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G108" t="n">
-        <v>5100</v>
-      </c>
-      <c r="H108" t="n">
-        <v>10200</v>
-      </c>
-      <c r="I108" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J108" t="n">
-        <v>43860</v>
-      </c>
-      <c r="K108" t="n">
-        <v>-43860</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2023-08-01 13:15:00</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>IBULHSGFIN</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>IBULHSGFIN31AUG23P140</t>
-        </is>
-      </c>
-      <c r="E109" t="n">
-        <v>128839</v>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G109" t="n">
-        <v>5100</v>
-      </c>
-      <c r="H109" t="n">
-        <v>10200</v>
-      </c>
-      <c r="I109" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J109" t="n">
-        <v>43860</v>
-      </c>
-      <c r="K109" t="n">
-        <v>-43860</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
+      <c r="M108" t="n">
+        <v>-12150</v>
+      </c>
+    </row>
+    <row r="109"/>
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>2023-08-01 15:26:00</t>
+          <t>2023-08-01 10:15:00</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4055,220 +4134,220 @@
         <v>87720</v>
       </c>
       <c r="K110" t="n">
+        <v>-87720</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2023-08-01 13:15:00</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>IBULHSGFIN</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>IBULHSGFIN31AUG23P140</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>128839</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>5100</v>
+      </c>
+      <c r="H111" t="n">
+        <v>20400</v>
+      </c>
+      <c r="I111" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J111" t="n">
         <v>87720</v>
       </c>
-      <c r="L110" t="inlineStr">
+      <c r="K111" t="n">
+        <v>-87720</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2023-08-01 15:26:00</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>IBULHSGFIN</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>IBULHSGFIN31AUG23P140</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>128839</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>5100</v>
+      </c>
+      <c r="H112" t="n">
+        <v>40800</v>
+      </c>
+      <c r="I112" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J112" t="n">
+        <v>175440</v>
+      </c>
+      <c r="K112" t="n">
+        <v>175440</v>
+      </c>
+      <c r="L112" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="111">
-      <c r="L111" t="inlineStr">
+    <row r="113">
+      <c r="L113" t="inlineStr">
         <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M111" t="n">
+      <c r="M113" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="112"/>
-    <row r="113">
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2023-08-01 09:31:00</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
+    <row r="114"/>
+    <row r="115">
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2023-08-01 10:15:00</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
         <is>
           <t>APOLLOHOSP</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>APOLLOHOSP-EQ</t>
-        </is>
-      </c>
-      <c r="E113" t="n">
-        <v>157</v>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G113" t="n">
-        <v>1</v>
-      </c>
-      <c r="H113" t="n">
-        <v>9</v>
-      </c>
-      <c r="I113" t="n">
-        <v>5107.5</v>
-      </c>
-      <c r="J113" t="n">
-        <v>45967.5</v>
-      </c>
-      <c r="K113" t="n">
-        <v>45967.5</v>
-      </c>
-      <c r="L113" t="inlineStr">
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>APOLLOHOSP31AUG23P5100</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>76490</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>125</v>
+      </c>
+      <c r="H115" t="n">
+        <v>500</v>
+      </c>
+      <c r="I115" t="n">
+        <v>185</v>
+      </c>
+      <c r="J115" t="n">
+        <v>92500</v>
+      </c>
+      <c r="K115" t="n">
+        <v>-92500</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2023-08-01 15:26:00</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>APOLLOHOSP</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>APOLLOHOSP31AUG23P5100</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>76490</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>125</v>
+      </c>
+      <c r="H116" t="n">
+        <v>500</v>
+      </c>
+      <c r="I116" t="n">
+        <v>216.35</v>
+      </c>
+      <c r="J116" t="n">
+        <v>108175</v>
+      </c>
+      <c r="K116" t="n">
+        <v>108175</v>
+      </c>
+      <c r="L116" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="114">
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2023-08-01 15:26:00</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>APOLLOHOSP</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>APOLLOHOSP-EQ</t>
-        </is>
-      </c>
-      <c r="E114" t="n">
-        <v>157</v>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G114" t="n">
-        <v>1</v>
-      </c>
-      <c r="H114" t="n">
-        <v>9</v>
-      </c>
-      <c r="I114" t="n">
-        <v>5035</v>
-      </c>
-      <c r="J114" t="n">
-        <v>45315</v>
-      </c>
-      <c r="K114" t="n">
-        <v>-45315</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="L115" t="inlineStr">
+    <row r="117">
+      <c r="L117" t="inlineStr">
         <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M115" t="n">
-        <v>652.5</v>
-      </c>
-    </row>
-    <row r="116"/>
-    <row r="117">
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2023-08-01 12:15:00</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>APOLLOHOSP</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>APOLLOHOSP31AUG23P5050</t>
-        </is>
-      </c>
-      <c r="E117" t="n">
-        <v>76486</v>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G117" t="n">
-        <v>125</v>
-      </c>
-      <c r="H117" t="n">
-        <v>250</v>
-      </c>
-      <c r="I117" t="n">
-        <v>190</v>
-      </c>
-      <c r="J117" t="n">
-        <v>47500</v>
-      </c>
-      <c r="K117" t="n">
-        <v>-47500</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2023-08-01 13:15:00</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>APOLLOHOSP</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>APOLLOHOSP31AUG23P5050</t>
-        </is>
-      </c>
-      <c r="E118" t="n">
-        <v>76486</v>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G118" t="n">
-        <v>125</v>
-      </c>
-      <c r="H118" t="n">
-        <v>250</v>
-      </c>
-      <c r="I118" t="n">
-        <v>185.75</v>
-      </c>
-      <c r="J118" t="n">
-        <v>46437.5</v>
-      </c>
-      <c r="K118" t="n">
-        <v>-46437.5</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
+      <c r="M117" t="n">
+        <v>15675</v>
+      </c>
+    </row>
+    <row r="118"/>
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>2023-08-01 15:26:00</t>
+          <t>2023-08-01 13:15:00</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4296,177 +4375,177 @@
         <v>500</v>
       </c>
       <c r="I119" t="n">
+        <v>185.75</v>
+      </c>
+      <c r="J119" t="n">
+        <v>92875</v>
+      </c>
+      <c r="K119" t="n">
+        <v>-92875</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2023-08-01 15:26:00</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>APOLLOHOSP</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>APOLLOHOSP31AUG23P5050</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>76486</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>125</v>
+      </c>
+      <c r="H120" t="n">
+        <v>500</v>
+      </c>
+      <c r="I120" t="n">
         <v>191.55</v>
       </c>
-      <c r="J119" t="n">
+      <c r="J120" t="n">
         <v>95775</v>
       </c>
-      <c r="K119" t="n">
+      <c r="K120" t="n">
         <v>95775</v>
       </c>
-      <c r="L119" t="inlineStr">
+      <c r="L120" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="120">
-      <c r="L120" t="inlineStr">
+    <row r="121">
+      <c r="L121" t="inlineStr">
         <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M120" t="n">
-        <v>1837.5</v>
-      </c>
-    </row>
-    <row r="121"/>
-    <row r="122">
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2023-08-01 09:31:00</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>GODREJPROP</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>GODREJPROP-EQ</t>
-        </is>
-      </c>
-      <c r="E122" t="n">
-        <v>17875</v>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G122" t="n">
-        <v>1</v>
-      </c>
-      <c r="H122" t="n">
-        <v>29</v>
-      </c>
-      <c r="I122" t="n">
-        <v>1720.35</v>
-      </c>
-      <c r="J122" t="n">
-        <v>49890.15</v>
-      </c>
-      <c r="K122" t="n">
-        <v>49890.15</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
+      <c r="M121" t="n">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="122"/>
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
+          <t>2023-08-01 10:15:00</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>GODREJPROP</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>GODREJPROP31AUG23P1720</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>116988</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>475</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1425</v>
+      </c>
+      <c r="I123" t="n">
+        <v>66.95</v>
+      </c>
+      <c r="J123" t="n">
+        <v>95403.75</v>
+      </c>
+      <c r="K123" t="n">
+        <v>-95403.75</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="B124" t="inlineStr">
+        <is>
           <t>2023-08-01 15:26:00</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>GODREJPROP</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>GODREJPROP-EQ</t>
-        </is>
-      </c>
-      <c r="E123" t="n">
-        <v>17875</v>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G123" t="n">
-        <v>1</v>
-      </c>
-      <c r="H123" t="n">
-        <v>29</v>
-      </c>
-      <c r="I123" t="n">
-        <v>1692.8</v>
-      </c>
-      <c r="J123" t="n">
-        <v>49091.2</v>
-      </c>
-      <c r="K123" t="n">
-        <v>-49091.2</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>GODREJPROP31AUG23P1720</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>116988</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>475</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1425</v>
+      </c>
+      <c r="I124" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J124" t="n">
+        <v>110010</v>
+      </c>
+      <c r="K124" t="n">
+        <v>110010</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="L125" t="inlineStr">
+        <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M124" t="n">
-        <v>798.9499999999971</v>
-      </c>
-    </row>
-    <row r="125"/>
-    <row r="126">
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2023-08-01 12:15:00</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>GODREJPROP</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>GODREJPROP31AUG23P1700</t>
-        </is>
-      </c>
-      <c r="E126" t="n">
-        <v>116907</v>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G126" t="n">
-        <v>475</v>
-      </c>
-      <c r="H126" t="n">
-        <v>475</v>
-      </c>
-      <c r="I126" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="J126" t="n">
-        <v>30542.5</v>
-      </c>
-      <c r="K126" t="n">
-        <v>-30542.5</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
+      <c r="M125" t="n">
+        <v>14606.25</v>
+      </c>
+    </row>
+    <row r="126"/>
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
@@ -4495,16 +4574,16 @@
         <v>475</v>
       </c>
       <c r="H127" t="n">
-        <v>475</v>
+        <v>1425</v>
       </c>
       <c r="I127" t="n">
         <v>64.90000000000001</v>
       </c>
       <c r="J127" t="n">
-        <v>30827.5</v>
+        <v>92482.5</v>
       </c>
       <c r="K127" t="n">
-        <v>-30827.5</v>
+        <v>-92482.5</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -4540,16 +4619,16 @@
         <v>475</v>
       </c>
       <c r="H128" t="n">
-        <v>950</v>
+        <v>1425</v>
       </c>
       <c r="I128" t="n">
         <v>65.65000000000001</v>
       </c>
       <c r="J128" t="n">
-        <v>62367.5</v>
+        <v>93551.25</v>
       </c>
       <c r="K128" t="n">
-        <v>62367.5</v>
+        <v>93551.25</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -4564,14 +4643,14 @@
         </is>
       </c>
       <c r="M129" t="n">
-        <v>997.5000000000073</v>
+        <v>1068.75</v>
       </c>
     </row>
     <row r="130"/>
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>2023-08-01 09:31:00</t>
+          <t>2023-08-01 10:15:00</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4581,35 +4660,35 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>UPL-EQ</t>
+          <t>UPL31AUG23P620</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>11287</v>
+        <v>149645</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>1300</v>
       </c>
       <c r="H131" t="n">
-        <v>81</v>
+        <v>5200</v>
       </c>
       <c r="I131" t="n">
-        <v>613.95</v>
+        <v>19</v>
       </c>
       <c r="J131" t="n">
-        <v>49729.95</v>
+        <v>98800</v>
       </c>
       <c r="K131" t="n">
-        <v>49729.95</v>
+        <v>-98800</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -4626,35 +4705,35 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>UPL-EQ</t>
+          <t>UPL31AUG23P620</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>11287</v>
+        <v>149645</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>1300</v>
       </c>
       <c r="H132" t="n">
-        <v>81</v>
+        <v>5200</v>
       </c>
       <c r="I132" t="n">
-        <v>626.3</v>
+        <v>16</v>
       </c>
       <c r="J132" t="n">
-        <v>50730.3</v>
+        <v>83200</v>
       </c>
       <c r="K132" t="n">
-        <v>-50730.3</v>
+        <v>83200</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -4665,7 +4744,7 @@
         </is>
       </c>
       <c r="M133" t="n">
-        <v>-1000.350000000006</v>
+        <v>-15600</v>
       </c>
     </row>
   </sheetData>

--- a/apidata/momentum/01-08-2023/report_01-08-2023.xlsx
+++ b/apidata/momentum/01-08-2023/report_01-08-2023.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:M75"/>
+  <dimension ref="B1:M73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8837.5</v>
+        <v>317.5000000000291</v>
       </c>
     </row>
     <row r="5">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8837.5</v>
+        <v>317.5000000000291</v>
       </c>
     </row>
     <row r="7"/>
@@ -1042,21 +1042,21 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>2023-08-01 12:39:00</t>
+          <t>2023-08-01 13:15:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>GODREJPROP</t>
+          <t>EXIDEIND</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>GODREJPROP31AUG23P1700</t>
+          <t>EXIDEIND31AUG23C262.5</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>116907</v>
+        <v>113918</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1064,30 +1064,30 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>475</v>
+        <v>3600</v>
       </c>
       <c r="H20" t="n">
-        <v>1425</v>
+        <v>7200</v>
       </c>
       <c r="I20" t="n">
-        <v>67.65000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="J20" t="n">
-        <v>96401.25</v>
+        <v>68400</v>
       </c>
       <c r="K20" t="n">
-        <v>96401.25</v>
+        <v>-68400</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-08-01 12:56:00</t>
+          <t>2023-08-01 13:15:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1097,11 +1097,11 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>POWERGRID31AUG23P252.5</t>
+          <t>POWERGRID31AUG23P250</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>140342</v>
+        <v>140340</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1115,17 +1115,17 @@
         <v>16200</v>
       </c>
       <c r="I21" t="n">
-        <v>6.65</v>
+        <v>5.6</v>
       </c>
       <c r="J21" t="n">
-        <v>107730</v>
+        <v>90720</v>
       </c>
       <c r="K21" t="n">
-        <v>107730</v>
+        <v>-90720</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1137,16 +1137,16 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>EXIDEIND</t>
+          <t>IBULHSGFIN</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>EXIDEIND31AUG23C262.5</t>
+          <t>IBULHSGFIN31AUG23P140</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>113918</v>
+        <v>128839</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1154,19 +1154,19 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3600</v>
+        <v>5100</v>
       </c>
       <c r="H22" t="n">
-        <v>7200</v>
+        <v>20400</v>
       </c>
       <c r="I22" t="n">
-        <v>9.5</v>
+        <v>4.3</v>
       </c>
       <c r="J22" t="n">
-        <v>68400</v>
+        <v>87720</v>
       </c>
       <c r="K22" t="n">
-        <v>-68400</v>
+        <v>-87720</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1182,16 +1182,16 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>POWERGRID</t>
+          <t>APOLLOHOSP</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>POWERGRID31AUG23P250</t>
+          <t>APOLLOHOSP31AUG23P5050</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>140340</v>
+        <v>76486</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1199,19 +1199,19 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2700</v>
+        <v>125</v>
       </c>
       <c r="H23" t="n">
-        <v>16200</v>
+        <v>500</v>
       </c>
       <c r="I23" t="n">
-        <v>5.6</v>
+        <v>185.75</v>
       </c>
       <c r="J23" t="n">
-        <v>90720</v>
+        <v>92875</v>
       </c>
       <c r="K23" t="n">
-        <v>-90720</v>
+        <v>-92875</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1227,16 +1227,16 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>IBULHSGFIN</t>
+          <t>GODREJPROP</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>IBULHSGFIN31AUG23P140</t>
+          <t>GODREJPROP31AUG23P1700</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>128839</v>
+        <v>116907</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1244,19 +1244,19 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>5100</v>
+        <v>475</v>
       </c>
       <c r="H24" t="n">
-        <v>20400</v>
+        <v>1425</v>
       </c>
       <c r="I24" t="n">
-        <v>4.3</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>87720</v>
+        <v>92482.5</v>
       </c>
       <c r="K24" t="n">
-        <v>-87720</v>
+        <v>-92482.5</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1267,21 +1267,21 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>2023-08-01 13:15:00</t>
+          <t>2023-08-01 13:16:00</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>APOLLOHOSP</t>
+          <t>EXIDEIND</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>APOLLOHOSP31AUG23P5050</t>
+          <t>EXIDEIND31AUG23C262.5</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>76486</v>
+        <v>113918</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1289,44 +1289,44 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>125</v>
+        <v>3600</v>
       </c>
       <c r="H25" t="n">
-        <v>500</v>
+        <v>7200</v>
       </c>
       <c r="I25" t="n">
-        <v>185.75</v>
+        <v>9.5</v>
       </c>
       <c r="J25" t="n">
-        <v>92875</v>
+        <v>68400</v>
       </c>
       <c r="K25" t="n">
-        <v>-92875</v>
+        <v>68400</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>2023-08-01 13:15:00</t>
+          <t>2023-08-01 14:15:00</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>GODREJPROP</t>
+          <t>EXIDEIND</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>GODREJPROP31AUG23P1700</t>
+          <t>EXIDEIND31AUG23C265</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>116907</v>
+        <v>113920</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1334,19 +1334,19 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>475</v>
+        <v>3600</v>
       </c>
       <c r="H26" t="n">
-        <v>1425</v>
+        <v>7200</v>
       </c>
       <c r="I26" t="n">
-        <v>64.90000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J26" t="n">
-        <v>92482.5</v>
+        <v>66960</v>
       </c>
       <c r="K26" t="n">
-        <v>-92482.5</v>
+        <v>-66960</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>2023-08-01 13:16:00</t>
+          <t>2023-08-01 14:16:00</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1367,11 +1367,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>EXIDEIND31AUG23C262.5</t>
+          <t>EXIDEIND31AUG23C265</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>113918</v>
+        <v>113920</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1385,13 +1385,13 @@
         <v>7200</v>
       </c>
       <c r="I27" t="n">
-        <v>9.5</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="J27" t="n">
-        <v>68400</v>
+        <v>65160</v>
       </c>
       <c r="K27" t="n">
-        <v>68400</v>
+        <v>65160</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1402,21 +1402,21 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>2023-08-01 14:15:00</t>
+          <t>2023-08-01 14:39:00</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>EXIDEIND</t>
+          <t>POWERGRID</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>EXIDEIND31AUG23C265</t>
+          <t>POWERGRID31AUG23P250</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>113920</v>
+        <v>140340</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1424,44 +1424,44 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3600</v>
+        <v>2700</v>
       </c>
       <c r="H28" t="n">
-        <v>7200</v>
+        <v>16200</v>
       </c>
       <c r="I28" t="n">
-        <v>9.300000000000001</v>
+        <v>4.95</v>
       </c>
       <c r="J28" t="n">
-        <v>66960</v>
+        <v>80190</v>
       </c>
       <c r="K28" t="n">
-        <v>-66960</v>
+        <v>80190</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>2023-08-01 14:16:00</t>
+          <t>2023-08-01 14:40:00</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>EXIDEIND</t>
+          <t>POWERGRID</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>EXIDEIND31AUG23C265</t>
+          <t>POWERGRID31AUG23P252.5</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>113920</v>
+        <v>140342</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1469,19 +1469,19 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3600</v>
+        <v>2700</v>
       </c>
       <c r="H29" t="n">
-        <v>7200</v>
+        <v>16200</v>
       </c>
       <c r="I29" t="n">
-        <v>9.050000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="J29" t="n">
-        <v>65160</v>
+        <v>100440</v>
       </c>
       <c r="K29" t="n">
-        <v>65160</v>
+        <v>100440</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1497,16 +1497,16 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>POWERGRID</t>
+          <t>IBULHSGFIN</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>POWERGRID31AUG23P250</t>
+          <t>IBULHSGFIN31AUG23P140</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>140340</v>
+        <v>128839</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1514,19 +1514,19 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2700</v>
+        <v>5100</v>
       </c>
       <c r="H30" t="n">
-        <v>16200</v>
+        <v>40800</v>
       </c>
       <c r="I30" t="n">
-        <v>4.85</v>
+        <v>4.3</v>
       </c>
       <c r="J30" t="n">
-        <v>78570</v>
+        <v>175440</v>
       </c>
       <c r="K30" t="n">
-        <v>78570</v>
+        <v>175440</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1542,16 +1542,16 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>IBULHSGFIN</t>
+          <t>APOLLOHOSP</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>IBULHSGFIN31AUG23P140</t>
+          <t>APOLLOHOSP31AUG23P5050</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>128839</v>
+        <v>76486</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1559,19 +1559,19 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>5100</v>
+        <v>125</v>
       </c>
       <c r="H31" t="n">
-        <v>40800</v>
+        <v>1000</v>
       </c>
       <c r="I31" t="n">
-        <v>4.3</v>
+        <v>191.55</v>
       </c>
       <c r="J31" t="n">
-        <v>175440</v>
+        <v>191550</v>
       </c>
       <c r="K31" t="n">
-        <v>175440</v>
+        <v>191550</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1587,16 +1587,16 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>APOLLOHOSP</t>
+          <t>GODREJPROP</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>APOLLOHOSP31AUG23P5050</t>
+          <t>GODREJPROP31AUG23P1700</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>76486</v>
+        <v>116907</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>125</v>
+        <v>475</v>
       </c>
       <c r="H32" t="n">
-        <v>1000</v>
+        <v>2850</v>
       </c>
       <c r="I32" t="n">
-        <v>191.55</v>
+        <v>65.65000000000001</v>
       </c>
       <c r="J32" t="n">
-        <v>191550</v>
+        <v>187102.5</v>
       </c>
       <c r="K32" t="n">
-        <v>191550</v>
+        <v>187102.5</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1624,56 +1624,56 @@
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2023-08-01 15:26:00</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>GODREJPROP</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>GODREJPROP31AUG23P1700</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>116907</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
-        <v>475</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1425</v>
-      </c>
-      <c r="I33" t="n">
-        <v>65.65000000000001</v>
-      </c>
-      <c r="J33" t="n">
-        <v>93551.25</v>
-      </c>
-      <c r="K33" t="n">
-        <v>93551.25</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="34"/>
+    <row r="33"/>
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2023-08-01 12:15:00</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>HINDCOPPER</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>HINDCOPPER31AUG23C152</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>45990</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>5300</v>
+      </c>
+      <c r="H34" t="n">
+        <v>10600</v>
+      </c>
+      <c r="I34" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="J34" t="n">
+        <v>75790</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-75790</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>2023-08-01 12:15:00</t>
+          <t>2023-08-01 12:16:00</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1701,80 +1701,80 @@
         <v>10600</v>
       </c>
       <c r="I35" t="n">
-        <v>7.15</v>
+        <v>7.1</v>
       </c>
       <c r="J35" t="n">
-        <v>75790</v>
+        <v>75260</v>
       </c>
       <c r="K35" t="n">
-        <v>-75790</v>
+        <v>75260</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>-530</v>
+      </c>
+    </row>
+    <row r="37"/>
+    <row r="38">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2023-08-01 12:15:00</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>UBL</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>UBL31AUG23C1590</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>177763</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>400</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1600</v>
+      </c>
+      <c r="I38" t="n">
+        <v>53.35</v>
+      </c>
+      <c r="J38" t="n">
+        <v>85360</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-85360</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2023-08-01 12:16:00</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>HINDCOPPER</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>HINDCOPPER31AUG23C152</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>45990</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
-        <v>5300</v>
-      </c>
-      <c r="H36" t="n">
-        <v>10600</v>
-      </c>
-      <c r="I36" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="J36" t="n">
-        <v>75260</v>
-      </c>
-      <c r="K36" t="n">
-        <v>75260</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>-530</v>
-      </c>
-    </row>
-    <row r="38"/>
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>2023-08-01 12:15:00</t>
+          <t>2023-08-01 12:16:00</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1802,80 +1802,80 @@
         <v>1600</v>
       </c>
       <c r="I39" t="n">
-        <v>53.35</v>
+        <v>54.1</v>
       </c>
       <c r="J39" t="n">
-        <v>85360</v>
+        <v>86560</v>
       </c>
       <c r="K39" t="n">
-        <v>-85360</v>
+        <v>86560</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="41"/>
+    <row r="42">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2023-08-01 12:15:00</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>EXIDEIND</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>EXIDEIND31AUG23C265</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>113920</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>3600</v>
+      </c>
+      <c r="H42" t="n">
+        <v>7200</v>
+      </c>
+      <c r="I42" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J42" t="n">
+        <v>69120</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-69120</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2023-08-01 12:16:00</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>UBL</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>UBL31AUG23C1590</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>177763</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>400</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1600</v>
-      </c>
-      <c r="I40" t="n">
-        <v>54.1</v>
-      </c>
-      <c r="J40" t="n">
-        <v>86560</v>
-      </c>
-      <c r="K40" t="n">
-        <v>86560</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="42"/>
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>2023-08-01 12:15:00</t>
+          <t>2023-08-01 12:16:00</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1903,24 +1903,24 @@
         <v>7200</v>
       </c>
       <c r="I43" t="n">
-        <v>9.6</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="J43" t="n">
-        <v>69120</v>
+        <v>68760</v>
       </c>
       <c r="K43" t="n">
-        <v>-69120</v>
+        <v>68760</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>2023-08-01 12:16:00</t>
+          <t>2023-08-01 14:15:00</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1948,24 +1948,24 @@
         <v>7200</v>
       </c>
       <c r="I44" t="n">
-        <v>9.550000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J44" t="n">
-        <v>68760</v>
+        <v>66960</v>
       </c>
       <c r="K44" t="n">
-        <v>68760</v>
+        <v>-66960</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>2023-08-01 14:15:00</t>
+          <t>2023-08-01 14:16:00</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1993,80 +1993,80 @@
         <v>7200</v>
       </c>
       <c r="I45" t="n">
-        <v>9.300000000000001</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="J45" t="n">
-        <v>66960</v>
+        <v>65160</v>
       </c>
       <c r="K45" t="n">
-        <v>-66960</v>
+        <v>65160</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>-2159.999999999993</v>
+      </c>
+    </row>
+    <row r="47"/>
+    <row r="48">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2023-08-01 13:15:00</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>EXIDEIND</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>EXIDEIND31AUG23C262.5</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>113918</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>3600</v>
+      </c>
+      <c r="H48" t="n">
+        <v>7200</v>
+      </c>
+      <c r="I48" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="J48" t="n">
+        <v>68400</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-68400</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2023-08-01 14:16:00</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>EXIDEIND</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>EXIDEIND31AUG23C265</t>
-        </is>
-      </c>
-      <c r="E46" t="n">
-        <v>113920</v>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
-        <v>3600</v>
-      </c>
-      <c r="H46" t="n">
-        <v>7200</v>
-      </c>
-      <c r="I46" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="J46" t="n">
-        <v>65160</v>
-      </c>
-      <c r="K46" t="n">
-        <v>65160</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>-2159.999999999993</v>
-      </c>
-    </row>
-    <row r="48"/>
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>2023-08-01 13:15:00</t>
+          <t>2023-08-01 13:16:00</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2100,74 +2100,74 @@
         <v>68400</v>
       </c>
       <c r="K49" t="n">
-        <v>-68400</v>
+        <v>68400</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51"/>
+    <row r="52">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2023-08-01 12:15:00</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>POWERGRID</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>POWERGRID31AUG23P252.5</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>140342</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>2700</v>
+      </c>
+      <c r="H52" t="n">
+        <v>16200</v>
+      </c>
+      <c r="I52" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="J52" t="n">
+        <v>94770</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-94770</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>2023-08-01 13:16:00</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>EXIDEIND</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>EXIDEIND31AUG23C262.5</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>113918</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G50" t="n">
-        <v>3600</v>
-      </c>
-      <c r="H50" t="n">
-        <v>7200</v>
-      </c>
-      <c r="I50" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="J50" t="n">
-        <v>68400</v>
-      </c>
-      <c r="K50" t="n">
-        <v>68400</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52"/>
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>2023-08-01 12:15:00</t>
+          <t>2023-08-01 14:40:00</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2195,80 +2195,80 @@
         <v>16200</v>
       </c>
       <c r="I53" t="n">
-        <v>5.85</v>
+        <v>6.2</v>
       </c>
       <c r="J53" t="n">
-        <v>94770</v>
+        <v>100440</v>
       </c>
       <c r="K53" t="n">
-        <v>-94770</v>
+        <v>100440</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
+        <v>5670</v>
+      </c>
+    </row>
+    <row r="55"/>
+    <row r="56">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2023-08-01 13:15:00</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>POWERGRID</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>POWERGRID31AUG23P250</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>140340</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>2700</v>
+      </c>
+      <c r="H56" t="n">
+        <v>16200</v>
+      </c>
+      <c r="I56" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J56" t="n">
+        <v>90720</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-90720</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2023-08-01 12:56:00</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>POWERGRID</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>POWERGRID31AUG23P252.5</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
-        <v>140342</v>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G54" t="n">
-        <v>2700</v>
-      </c>
-      <c r="H54" t="n">
-        <v>16200</v>
-      </c>
-      <c r="I54" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="J54" t="n">
-        <v>107730</v>
-      </c>
-      <c r="K54" t="n">
-        <v>107730</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>12960</v>
-      </c>
-    </row>
-    <row r="56"/>
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>2023-08-01 13:15:00</t>
+          <t>2023-08-01 14:39:00</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2296,80 +2296,80 @@
         <v>16200</v>
       </c>
       <c r="I57" t="n">
-        <v>5.6</v>
+        <v>4.95</v>
       </c>
       <c r="J57" t="n">
-        <v>90720</v>
+        <v>80190</v>
       </c>
       <c r="K57" t="n">
-        <v>-90720</v>
+        <v>80190</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
+        <v>-10530</v>
+      </c>
+    </row>
+    <row r="59"/>
+    <row r="60">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2023-08-01 12:15:00</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>IBULHSGFIN</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>IBULHSGFIN31AUG23P140</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>128839</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>5100</v>
+      </c>
+      <c r="H60" t="n">
+        <v>20400</v>
+      </c>
+      <c r="I60" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J60" t="n">
+        <v>87720</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-87720</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2023-08-01 15:26:00</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>POWERGRID</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>POWERGRID31AUG23P250</t>
-        </is>
-      </c>
-      <c r="E58" t="n">
-        <v>140340</v>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G58" t="n">
-        <v>2700</v>
-      </c>
-      <c r="H58" t="n">
-        <v>16200</v>
-      </c>
-      <c r="I58" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="J58" t="n">
-        <v>78570</v>
-      </c>
-      <c r="K58" t="n">
-        <v>78570</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>-12150</v>
-      </c>
-    </row>
-    <row r="60"/>
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>2023-08-01 12:15:00</t>
+          <t>2023-08-01 13:15:00</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2414,7 +2414,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>2023-08-01 13:15:00</t>
+          <t>2023-08-01 15:26:00</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2439,83 +2439,83 @@
         <v>5100</v>
       </c>
       <c r="H62" t="n">
-        <v>20400</v>
+        <v>40800</v>
       </c>
       <c r="I62" t="n">
         <v>4.3</v>
       </c>
       <c r="J62" t="n">
-        <v>87720</v>
+        <v>175440</v>
       </c>
       <c r="K62" t="n">
-        <v>-87720</v>
+        <v>175440</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64"/>
+    <row r="65">
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2023-08-01 12:15:00</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>APOLLOHOSP</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>APOLLOHOSP31AUG23P5050</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>76486</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>125</v>
+      </c>
+      <c r="H65" t="n">
+        <v>500</v>
+      </c>
+      <c r="I65" t="n">
+        <v>190</v>
+      </c>
+      <c r="J65" t="n">
+        <v>95000</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-95000</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2023-08-01 15:26:00</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>IBULHSGFIN</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>IBULHSGFIN31AUG23P140</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>128839</v>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G63" t="n">
-        <v>5100</v>
-      </c>
-      <c r="H63" t="n">
-        <v>40800</v>
-      </c>
-      <c r="I63" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J63" t="n">
-        <v>175440</v>
-      </c>
-      <c r="K63" t="n">
-        <v>175440</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65"/>
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>2023-08-01 12:15:00</t>
+          <t>2023-08-01 13:15:00</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2543,13 +2543,13 @@
         <v>500</v>
       </c>
       <c r="I66" t="n">
-        <v>190</v>
+        <v>185.75</v>
       </c>
       <c r="J66" t="n">
-        <v>95000</v>
+        <v>92875</v>
       </c>
       <c r="K66" t="n">
-        <v>-95000</v>
+        <v>-92875</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>2023-08-01 13:15:00</t>
+          <t>2023-08-01 15:26:00</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2585,83 +2585,83 @@
         <v>125</v>
       </c>
       <c r="H67" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I67" t="n">
-        <v>185.75</v>
+        <v>191.55</v>
       </c>
       <c r="J67" t="n">
-        <v>92875</v>
+        <v>191550</v>
       </c>
       <c r="K67" t="n">
-        <v>-92875</v>
+        <v>191550</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
+        <v>3675</v>
+      </c>
+    </row>
+    <row r="69"/>
+    <row r="70">
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2023-08-01 12:15:00</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>GODREJPROP</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>GODREJPROP31AUG23P1700</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>116907</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>475</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1425</v>
+      </c>
+      <c r="I70" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="J70" t="n">
+        <v>91627.5</v>
+      </c>
+      <c r="K70" t="n">
+        <v>-91627.5</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2023-08-01 15:26:00</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>APOLLOHOSP</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>APOLLOHOSP31AUG23P5050</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>76486</v>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G68" t="n">
-        <v>125</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I68" t="n">
-        <v>191.55</v>
-      </c>
-      <c r="J68" t="n">
-        <v>191550</v>
-      </c>
-      <c r="K68" t="n">
-        <v>191550</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>3675</v>
-      </c>
-    </row>
-    <row r="70"/>
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>2023-08-01 12:15:00</t>
+          <t>2023-08-01 13:15:00</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2689,13 +2689,13 @@
         <v>1425</v>
       </c>
       <c r="I71" t="n">
-        <v>64.3</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="J71" t="n">
-        <v>91627.5</v>
+        <v>92482.5</v>
       </c>
       <c r="K71" t="n">
-        <v>-91627.5</v>
+        <v>-92482.5</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>2023-08-01 12:39:00</t>
+          <t>2023-08-01 15:26:00</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2731,16 +2731,16 @@
         <v>475</v>
       </c>
       <c r="H72" t="n">
-        <v>1425</v>
+        <v>2850</v>
       </c>
       <c r="I72" t="n">
-        <v>67.65000000000001</v>
+        <v>65.65000000000001</v>
       </c>
       <c r="J72" t="n">
-        <v>96401.25</v>
+        <v>187102.5</v>
       </c>
       <c r="K72" t="n">
-        <v>96401.25</v>
+        <v>187102.5</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -2749,103 +2749,13 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2023-08-01 13:15:00</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>GODREJPROP</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>GODREJPROP31AUG23P1700</t>
-        </is>
-      </c>
-      <c r="E73" t="n">
-        <v>116907</v>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G73" t="n">
-        <v>475</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1425</v>
-      </c>
-      <c r="I73" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="J73" t="n">
-        <v>92482.5</v>
-      </c>
-      <c r="K73" t="n">
-        <v>-92482.5</v>
-      </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2023-08-01 15:26:00</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>GODREJPROP</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>GODREJPROP31AUG23P1700</t>
-        </is>
-      </c>
-      <c r="E74" t="n">
-        <v>116907</v>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G74" t="n">
-        <v>475</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1425</v>
-      </c>
-      <c r="I74" t="n">
-        <v>65.65000000000001</v>
-      </c>
-      <c r="J74" t="n">
-        <v>93551.25</v>
-      </c>
-      <c r="K74" t="n">
-        <v>93551.25</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="L75" t="inlineStr">
-        <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M75" t="n">
-        <v>5842.5</v>
+      <c r="M73" t="n">
+        <v>2992.500000000029</v>
       </c>
     </row>
   </sheetData>
